--- a/data/trans_camb/P18_4_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P18_4_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-29,37</t>
+          <t>-29,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-22,72</t>
+          <t>-18,94</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-28,77</t>
+          <t>-27,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>46,92</t>
+          <t>-33,87</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-25,68</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-18,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-23,39</t>
+          <t>-22,65</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>32,29</t>
+          <t>-19,99</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-27,31</t>
+          <t>-23,52</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-20,28</t>
+          <t>-27,65</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-25,74</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>38,76</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-25,67</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-19,51</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-25,2</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-29,95</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-36,96; -20,21</t>
+          <t>-46,03; -18,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-31,11; -12,63</t>
+          <t>-36,31; -3,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-37,2; -21,93</t>
+          <t>-44,57; -15,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>38,64; 54,56</t>
+          <t>-49,71; -21,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-32,46; -18,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,49; -11,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-30,42; -16,1</t>
+          <t>-34,16; -10,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,38; 39,74</t>
+          <t>-30,14; -8,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-33,1; -21,65</t>
+          <t>-34,34; -13,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-25,63; -14,47</t>
+          <t>-38,55; -16,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-30,9; -20,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>32,61; 44,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-35,36; -16,81</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-28,77; -10,82</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-34,5; -17,88</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-38,25; -20,99</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-73,43%</t>
+          <t>-76,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-56,79%</t>
+          <t>-48,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-71,93%</t>
+          <t>-70,8%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>117,3%</t>
+          <t>-87,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-58,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-41,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-52,93%</t>
+          <t>-50,39%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>73,05%</t>
+          <t>-44,49%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-64,46%</t>
+          <t>-52,33%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-47,85%</t>
+          <t>-61,52%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-60,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>91,48%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-60,95%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-46,31%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-59,83%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-71,09%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-84,26; -54,42</t>
+          <t>-88,84; -53,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-69,76; -34,44</t>
+          <t>-72,19; -8,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-81,02; -60,66</t>
+          <t>-82,78; -53,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82,79; 159,22</t>
+          <t>-95,14; -72,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,39; -45,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,1; -26,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-63,76; -39,2</t>
+          <t>-66,71; -25,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>50,8; 98,81</t>
+          <t>-57,71; -22,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-72,88; -54,65</t>
+          <t>-64,32; -35,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-56,56; -36,58</t>
+          <t>-74,86; -42,57</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-68,08; -51,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>70,83; 113,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-72,78; -45,03</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-58,97; -28,85</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-69,43; -49,3</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-80,31; -58,18</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-20,25</t>
+          <t>-14,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-15,64</t>
+          <t>-10,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-18,58</t>
+          <t>-13,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>63,48</t>
+          <t>-12,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-22,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-16,99</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-19,6</t>
+          <t>-19,49</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>56,21</t>
+          <t>-13,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-21,32</t>
+          <t>-16,76</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-16,37</t>
+          <t>-22,98</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-19,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>59,97</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-17,15</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-11,78</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-15,27</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-17,74</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,45; -14,81</t>
+          <t>-21,12; -6,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,94; -9,87</t>
+          <t>-17,11; -3,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,59; -14,12</t>
+          <t>-19,64; -7,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>58,73; 68,03</t>
+          <t>-18,65; -4,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,47; -17,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,11; -12,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-23,96; -14,08</t>
+          <t>-26,22; -12,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>51,9; 60,55</t>
+          <t>-19,61; -6,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-24,55; -18,16</t>
+          <t>-23,3; -10,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-19,58; -13,13</t>
+          <t>-29,64; -16,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-22,27; -15,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>56,38; 63,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-22,32; -12,31</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-16,36; -7,14</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-19,92; -10,81</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-22,48; -13,14</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-71,6%</t>
+          <t>-62,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-55,31%</t>
+          <t>-44,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-65,7%</t>
+          <t>-57,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>224,4%</t>
+          <t>-52,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-68,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-52,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-60,12%</t>
+          <t>-65,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>172,44%</t>
+          <t>-43,39%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-70,0%</t>
+          <t>-55,93%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-53,75%</t>
+          <t>-76,7%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-62,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>196,92%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-64,19%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-44,07%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-57,16%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-66,4%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-81,28; -56,68</t>
+          <t>-79,01; -26,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-65,21; -38,56</t>
+          <t>-61,42; -17,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-74,71; -53,86</t>
+          <t>-69,88; -35,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>184,73; 278,52</t>
+          <t>-70,83; -20,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-76,15; -58,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-61,08; -40,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-68,76; -45,43</t>
+          <t>-76,3; -45,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>145,0; 205,22</t>
+          <t>-56,48; -24,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-75,76; -62,46</t>
+          <t>-67,15; -38,53</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-60,66; -45,97</t>
+          <t>-84,72; -65,69</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-68,92; -53,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>171,64; 223,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-74,23; -49,19</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-55,06; -29,76</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-65,71; -43,99</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-75,93; -54,07</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-17,64</t>
+          <t>-18,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-15,82</t>
+          <t>-16,35</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-20,04</t>
+          <t>-17,57</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>66,83</t>
+          <t>-18,6</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-12,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,57</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-10,88</t>
+          <t>-12,99</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>75,33</t>
+          <t>-6,38</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-15,21</t>
+          <t>-9,81</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-11,21</t>
+          <t>-13,63</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-15,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>71,09</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-15,74</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-11,03</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-13,46</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-15,92</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-24,02; -11,53</t>
+          <t>-26,7; -12,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-22,19; -9,79</t>
+          <t>-23,34; -9,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,6; -15,22</t>
+          <t>-24,7; -11,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>59,46; 72,62</t>
+          <t>-25,61; -12,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,42; -8,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,1; -1,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,69; -6,58</t>
+          <t>-18,79; -7,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>70,67; 79,24</t>
+          <t>-12,8; -0,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-18,99; -10,96</t>
+          <t>-15,69; -4,98</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-15,21; -7,43</t>
+          <t>-19,06; -8,34</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-19,55; -12,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>66,65; 74,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-20,35; -11,75</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-15,78; -6,74</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-17,56; -9,37</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-20,54; -11,92</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-67,9%</t>
+          <t>-81,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-60,87%</t>
+          <t>-69,98%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-77,1%</t>
+          <t>-75,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>257,17%</t>
+          <t>-79,64%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-64,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-33,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-55,45%</t>
+          <t>-70,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>383,95%</t>
+          <t>-34,44%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-66,53%</t>
+          <t>-52,96%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-49,05%</t>
+          <t>-73,53%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-67,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>311,05%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-75,86%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-53,13%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-64,83%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-76,71%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-81,19; -44,65</t>
+          <t>-90,32; -66,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-74,77; -42,22</t>
+          <t>-82,34; -46,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-84,65; -65,54</t>
+          <t>-84,58; -60,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>194,98; 329,72</t>
+          <t>-89,4; -61,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-78,12; -48,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-51,06; -11,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-69,25; -38,62</t>
+          <t>-83,23; -49,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>301,09; 481,65</t>
+          <t>-54,95; -3,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-76,36; -51,47</t>
+          <t>-67,79; -31,5</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-60,32; -34,91</t>
+          <t>-84,51; -55,28</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-74,69; -58,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>251,65; 366,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-84,15; -63,81</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-65,96; -35,87</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-73,36; -53,68</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-84,67; -65,48</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-21,11</t>
+          <t>-22,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-16,83</t>
+          <t>-16,63</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-20,89</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>60,89</t>
+          <t>-24,87</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-20,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-14,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-17,94</t>
+          <t>-21,17</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>54,31</t>
+          <t>-14,97</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-20,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-15,44</t>
+          <t>-25,81</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-19,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>57,58</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-21,62</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-15,92</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-25,36</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-24,42; -17,59</t>
+          <t>-26,7; -16,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-20,45; -12,99</t>
+          <t>-22,3; -10,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-24,23; -17,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>57,01; 63,94</t>
+          <t>-29,69; -19,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-23,54; -17,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,24; -11,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-20,86; -15,08</t>
+          <t>-25,55; -16,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>50,93; 57,25</t>
+          <t>-20,57; -9,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-23,02; -18,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-17,69; -13,17</t>
+          <t>-29,73; -21,39</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-21,57; -17,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>55,1; 60,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-24,97; -18,07</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-19,82; -11,59</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-28,66; -22,04</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-71,01%</t>
+          <t>-68,37%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-56,62%</t>
+          <t>-51,57%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-70,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>204,84%</t>
+          <t>-77,11%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-64,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-44,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-56,78%</t>
+          <t>-62,02%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>171,91%</t>
+          <t>-43,84%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-67,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-50,33%</t>
+          <t>-75,61%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-63,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>187,65%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-65,15%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-47,97%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-76,41%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-77,65; -61,84</t>
+          <t>-77,71; -53,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,51; -47,18</t>
+          <t>-64,78; -34,65</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-75,72; -63,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>176,49; 235,78</t>
+          <t>-84,87; -64,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-70,72; -58,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-51,38; -36,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-62,73; -49,65</t>
+          <t>-71,39; -51,68</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>150,62; 193,27</t>
+          <t>-57,65; -28,31</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-72,37; -62,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-55,3; -44,44</t>
+          <t>-83,88; -65,3</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-67,6; -58,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>171,34; 207,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-71,67; -56,24</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-57,63; -36,26</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-82,53; -68,77</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-21,29</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-16,59</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-20,91</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-22,2</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-20,01</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-14,22</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-17,98</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-23,11</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-20,63</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-15,39</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-19,42</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>-22,66</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-24,51; -17,62</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-20,31; -13,07</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-24,33; -17,77</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-25,72; -18,85</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-23,17; -16,97</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-17,68; -11,3</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-21,0; -14,79</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-25,99; -20,14</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-22,85; -18,31</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-17,64; -13,11</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-21,89; -17,34</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-25,04; -20,54</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-71,56%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-55,77%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-70,3%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-74,63%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-63,0%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-44,78%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-56,61%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-72,77%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-67,04%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-50,02%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-63,1%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>-73,64%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-78,26; -62,98</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-64,1; -45,94</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-75,98; -63,42</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-80,77; -66,09</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-68,96; -56,41</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-52,75; -37,39</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-63,05; -49,35</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-77,63; -66,98</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-71,6; -61,47</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-55,92; -44,18</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-67,75; -58,44</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-77,75; -68,71</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
